--- a/Datenquellen.xlsx
+++ b/Datenquellen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>NRW</t>
   </si>
@@ -151,9 +151,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -163,26 +179,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,21 +203,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,15 +514,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q6"/>
+  <dimension ref="A2:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="7" width="25.28515625" customWidth="1"/>
@@ -547,58 +538,60 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
@@ -650,8 +643,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -672,6 +665,9 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
       <c r="I4" t="s">
         <v>28</v>
       </c>
@@ -697,20 +693,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
@@ -719,10 +715,10 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L5" t="s">
@@ -737,18 +733,18 @@
       <c r="Q5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
     <hyperlink ref="E5" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="K5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -758,7 +754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -770,7 +766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
